--- a/reddito disponibile.xlsx
+++ b/reddito disponibile.xlsx
@@ -5,24 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Desktop\università\directory R\tesina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7F2E94-C196-4B8C-AD6F-179C15208A83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B4BB77-FB91-418A-A15F-7C63E9D341DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
-    <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
-    <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>yd95</t>
   </si>
@@ -32,18 +30,30 @@
   <si>
     <t>qtr</t>
   </si>
+  <si>
+    <t>trimestrali</t>
+  </si>
+  <si>
+    <t>YD defl</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,11 +76,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -409,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CI3"/>
+  <dimension ref="A1:CP7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B7" sqref="B7:CG7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,7 +432,7 @@
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -492,7 +503,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -755,7 +766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1016,33 +1027,634 @@
       </c>
       <c r="CI3">
         <v>274378.04055086098</v>
+      </c>
+    </row>
+    <row r="4" spans="1:94" s="2" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.70766666666666678</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.71133333333333326</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.71266666666666667</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.71466666666666667</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.71766666666666667</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.72133333333333327</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.72466666666666679</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.72933333333333339</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.73466666666666669</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.73966666666666658</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.7446666666666667</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.74966666666666659</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.7496666666666667</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.76033333333333319</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.76800000000000013</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.77966666666666662</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0.78033333333333343</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0.78966666666666674</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0.80199999999999994</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0.80266666666666664</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>0.81033333333333335</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>0.80766666666666664</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>0.82100000000000006</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>0.82066666666666654</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0.82766666666666666</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>0.82466666666666677</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>0.83866666666666667</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>0.84266666666666667</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>0.85866666666666669</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>0.85866666666666669</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>0.85966666666666669</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>0.87466666666666659</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>0.87299999999999989</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>0.88766666666666671</v>
+      </c>
+      <c r="AQ4" s="2">
+        <v>0.90733333333333333</v>
+      </c>
+      <c r="AR4" s="2">
+        <v>0.90833333333333333</v>
+      </c>
+      <c r="AS4" s="2">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="AT4" s="2">
+        <v>0.89966666666666661</v>
+      </c>
+      <c r="AU4" s="2">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="AV4" s="2">
+        <v>0.90933333333333322</v>
+      </c>
+      <c r="AW4" s="2">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="AX4" s="2">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="AY4" s="2">
+        <v>0.92933333333333346</v>
+      </c>
+      <c r="AZ4" s="2">
+        <v>0.92466666666666664</v>
+      </c>
+      <c r="BA4" s="2">
+        <v>0.93699999999999994</v>
+      </c>
+      <c r="BB4" s="2">
+        <v>0.93233333333333324</v>
+      </c>
+      <c r="BC4" s="2">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="BD4" s="2">
+        <v>0.94933333333333325</v>
+      </c>
+      <c r="BE4" s="2">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="BF4" s="2">
+        <v>0.96533333333333327</v>
+      </c>
+      <c r="BG4" s="2">
+        <v>0.9916666666666667</v>
+      </c>
+      <c r="BH4" s="2">
+        <v>0.98233333333333339</v>
+      </c>
+      <c r="BI4" s="2">
+        <v>0.99766666666666681</v>
+      </c>
+      <c r="BJ4" s="2">
+        <v>0.98533333333333328</v>
+      </c>
+      <c r="BK4" s="2">
+        <v>1.0036666666666665</v>
+      </c>
+      <c r="BL4" s="2">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="BM4" s="2">
+        <v>1.0039999999999998</v>
+      </c>
+      <c r="BN4" s="2">
+        <v>0.98966666666666658</v>
+      </c>
+      <c r="BO4" s="2">
+        <v>1.0076666666666667</v>
+      </c>
+      <c r="BP4" s="2">
+        <v>0.99233333333333329</v>
+      </c>
+      <c r="BQ4" s="2">
+        <v>1.0056666666666667</v>
+      </c>
+      <c r="BR4" s="2">
+        <v>0.98833333333333329</v>
+      </c>
+      <c r="BS4" s="2">
+        <v>1.0086666666666666</v>
+      </c>
+      <c r="BT4" s="2">
+        <v>0.99533333333333329</v>
+      </c>
+      <c r="BU4" s="2">
+        <v>1.0073333333333334</v>
+      </c>
+      <c r="BV4" s="2">
+        <v>0.98833333333333329</v>
+      </c>
+      <c r="BW4" s="2">
+        <v>1.0056666666666667</v>
+      </c>
+      <c r="BX4" s="2">
+        <v>0.9946666666666667</v>
+      </c>
+      <c r="BY4" s="2">
+        <v>1.0090000000000001</v>
+      </c>
+      <c r="BZ4" s="2">
+        <v>1.0016666666666667</v>
+      </c>
+      <c r="CA4" s="2">
+        <v>1.0216666666666667</v>
+      </c>
+      <c r="CB4" s="2">
+        <v>1.0076666666666667</v>
+      </c>
+      <c r="CC4" s="2">
+        <v>1.0196666666666667</v>
+      </c>
+      <c r="CD4" s="2">
+        <v>1.0103333333333333</v>
+      </c>
+      <c r="CE4" s="2">
+        <v>1.0316666666666665</v>
+      </c>
+      <c r="CF4" s="2">
+        <v>1.0243333333333335</v>
+      </c>
+      <c r="CG4" s="2">
+        <v>1.0346666666666666</v>
+      </c>
+      <c r="CH4" s="2">
+        <v>1.0206666666666668</v>
+      </c>
+      <c r="CI4" s="2">
+        <v>1.0410000000000001</v>
+      </c>
+      <c r="CJ4" s="2">
+        <v>1.0276666666666665</v>
+      </c>
+      <c r="CK4" s="2">
+        <v>1.0376666666666667</v>
+      </c>
+      <c r="CL4" s="2">
+        <v>1.0230000000000001</v>
+      </c>
+      <c r="CM4" s="2">
+        <v>1.0389999999999999</v>
+      </c>
+      <c r="CN4" s="2">
+        <v>1.0253333333333334</v>
+      </c>
+      <c r="CO4" s="2">
+        <v>1.0336666666666667</v>
+      </c>
+      <c r="CP4" s="2">
+        <v>1.0306666666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <f>B3/B4</f>
+        <v>285734.94849434803</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" ref="C7:BN7" si="0">C3/C4</f>
+        <v>285958.3498615853</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>291394.84845160664</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>290299.08484753268</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>289831.63710985833</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>292128.62327440619</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>295046.97961716511</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>306383.71991728788</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>303106.69703475403</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="0"/>
+        <v>301023.47972425283</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="0"/>
+        <v>303918.11212365446</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="0"/>
+        <v>300534.86610272521</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="0"/>
+        <v>307633.67007348151</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="0"/>
+        <v>305632.47344133508</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="0"/>
+        <v>308048.28664362169</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="0"/>
+        <v>305957.27161047002</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="0"/>
+        <v>310581.21688828117</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="0"/>
+        <v>307834.57204218215</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="0"/>
+        <v>312009.98089405551</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="0"/>
+        <v>307260.78036651458</v>
+      </c>
+      <c r="V7" s="1">
+        <f t="shared" si="0"/>
+        <v>311714.58031427814</v>
+      </c>
+      <c r="W7" s="1">
+        <f t="shared" si="0"/>
+        <v>310355.53804917331</v>
+      </c>
+      <c r="X7" s="1">
+        <f t="shared" si="0"/>
+        <v>315399.05564854987</v>
+      </c>
+      <c r="Y7" s="1">
+        <f t="shared" si="0"/>
+        <v>310812.83100913203</v>
+      </c>
+      <c r="Z7" s="1">
+        <f t="shared" si="0"/>
+        <v>314689.50476599962</v>
+      </c>
+      <c r="AA7" s="1">
+        <f t="shared" si="0"/>
+        <v>310849.69782498293</v>
+      </c>
+      <c r="AB7" s="1">
+        <f t="shared" si="0"/>
+        <v>312772.93376841111</v>
+      </c>
+      <c r="AC7" s="1">
+        <f t="shared" si="0"/>
+        <v>317033.80935892632</v>
+      </c>
+      <c r="AD7" s="1">
+        <f t="shared" si="0"/>
+        <v>317875.3072408326</v>
+      </c>
+      <c r="AE7" s="1">
+        <f t="shared" si="0"/>
+        <v>314973.47634193563</v>
+      </c>
+      <c r="AF7" s="1">
+        <f t="shared" si="0"/>
+        <v>321784.61438102863</v>
+      </c>
+      <c r="AG7" s="1">
+        <f t="shared" si="0"/>
+        <v>319734.81085256202</v>
+      </c>
+      <c r="AH7" s="1">
+        <f t="shared" si="0"/>
+        <v>324049.70516879787</v>
+      </c>
+      <c r="AI7" s="1">
+        <f t="shared" si="0"/>
+        <v>320147.16369482497</v>
+      </c>
+      <c r="AJ7" s="1">
+        <f t="shared" si="0"/>
+        <v>323218.20336248988</v>
+      </c>
+      <c r="AK7" s="1">
+        <f t="shared" si="0"/>
+        <v>323829.88578079402</v>
+      </c>
+      <c r="AL7" s="1">
+        <f t="shared" si="0"/>
+        <v>324519.62042108376</v>
+      </c>
+      <c r="AM7" s="1">
+        <f t="shared" si="0"/>
+        <v>325457.88564079005</v>
+      </c>
+      <c r="AN7" s="1">
+        <f t="shared" si="0"/>
+        <v>323517.91402346967</v>
+      </c>
+      <c r="AO7" s="1">
+        <f t="shared" si="0"/>
+        <v>313107.66471976973</v>
+      </c>
+      <c r="AP7" s="1">
+        <f t="shared" si="0"/>
+        <v>312445.44862846413</v>
+      </c>
+      <c r="AQ7" s="1">
+        <f t="shared" si="0"/>
+        <v>301288.3426424184</v>
+      </c>
+      <c r="AR7" s="1">
+        <f t="shared" si="0"/>
+        <v>299438.74266345252</v>
+      </c>
+      <c r="AS7" s="1">
+        <f t="shared" si="0"/>
+        <v>301369.290754057</v>
+      </c>
+      <c r="AT7" s="1">
+        <f t="shared" si="0"/>
+        <v>302297.08612869692</v>
+      </c>
+      <c r="AU7" s="1">
+        <f t="shared" si="0"/>
+        <v>298937.9076810109</v>
+      </c>
+      <c r="AV7" s="1">
+        <f t="shared" si="0"/>
+        <v>301078.39891470753</v>
+      </c>
+      <c r="AW7" s="1">
+        <f t="shared" si="0"/>
+        <v>301666.48696984327</v>
+      </c>
+      <c r="AX7" s="1">
+        <f t="shared" si="0"/>
+        <v>307432.2730242064</v>
+      </c>
+      <c r="AY7" s="1">
+        <f t="shared" si="0"/>
+        <v>303198.5957189569</v>
+      </c>
+      <c r="AZ7" s="1">
+        <f t="shared" si="0"/>
+        <v>304271.78102704434</v>
+      </c>
+      <c r="BA7" s="1">
+        <f t="shared" si="0"/>
+        <v>301685.44434861798</v>
+      </c>
+      <c r="BB7" s="1">
+        <f t="shared" si="0"/>
+        <v>296468.96201053134</v>
+      </c>
+      <c r="BC7" s="1">
+        <f t="shared" si="0"/>
+        <v>287805.28997795511</v>
+      </c>
+      <c r="BD7" s="1">
+        <f t="shared" si="0"/>
+        <v>286171.05073020188</v>
+      </c>
+      <c r="BE7" s="1">
+        <f t="shared" si="0"/>
+        <v>278809.95193753397</v>
+      </c>
+      <c r="BF7" s="1">
+        <f t="shared" si="0"/>
+        <v>283546.07727636053</v>
+      </c>
+      <c r="BG7" s="1">
+        <f t="shared" si="0"/>
+        <v>275689.22864764638</v>
+      </c>
+      <c r="BH7" s="1">
+        <f t="shared" si="0"/>
+        <v>281835.35350756225</v>
+      </c>
+      <c r="BI7" s="1">
+        <f t="shared" si="0"/>
+        <v>276666.00419107615</v>
+      </c>
+      <c r="BJ7" s="1">
+        <f t="shared" si="0"/>
+        <v>280659.21850327065</v>
+      </c>
+      <c r="BK7" s="1">
+        <f t="shared" si="0"/>
+        <v>274511.83683542517</v>
+      </c>
+      <c r="BL7" s="1">
+        <f t="shared" si="0"/>
+        <v>278420.01307587913</v>
+      </c>
+      <c r="BM7" s="1">
+        <f t="shared" si="0"/>
+        <v>277685.04329757276</v>
+      </c>
+      <c r="BN7" s="1">
+        <f t="shared" si="0"/>
+        <v>280134.12307836174</v>
+      </c>
+      <c r="BO7" s="1">
+        <f t="shared" ref="BO7:CG7" si="1">BO3/BO4</f>
+        <v>277714.29761893913</v>
+      </c>
+      <c r="BP7" s="1">
+        <f t="shared" si="1"/>
+        <v>283107.88417776924</v>
+      </c>
+      <c r="BQ7" s="1">
+        <f t="shared" si="1"/>
+        <v>280489.74805198604</v>
+      </c>
+      <c r="BR7" s="1">
+        <f t="shared" si="1"/>
+        <v>286150.81189478043</v>
+      </c>
+      <c r="BS7" s="1">
+        <f t="shared" si="1"/>
+        <v>281129.6364128298</v>
+      </c>
+      <c r="BT7" s="1">
+        <f t="shared" si="1"/>
+        <v>285621.07791009644</v>
+      </c>
+      <c r="BU7" s="1">
+        <f t="shared" si="1"/>
+        <v>282069.317762725</v>
+      </c>
+      <c r="BV7" s="1">
+        <f t="shared" si="1"/>
+        <v>289924.30959399056</v>
+      </c>
+      <c r="BW7" s="1">
+        <f t="shared" si="1"/>
+        <v>287648.320927936</v>
+      </c>
+      <c r="BX7" s="1">
+        <f t="shared" si="1"/>
+        <v>292199.76337776473</v>
+      </c>
+      <c r="BY7" s="1">
+        <f t="shared" si="1"/>
+        <v>290079.30726973433</v>
+      </c>
+      <c r="BZ7" s="1">
+        <f t="shared" si="1"/>
+        <v>291414.26073666988</v>
+      </c>
+      <c r="CA7" s="1">
+        <f t="shared" si="1"/>
+        <v>288871.56231336604</v>
+      </c>
+      <c r="CB7" s="1">
+        <f t="shared" si="1"/>
+        <v>293084.9729124998</v>
+      </c>
+      <c r="CC7" s="1">
+        <f t="shared" si="1"/>
+        <v>290969.55819491437</v>
+      </c>
+      <c r="CD7" s="1">
+        <f t="shared" si="1"/>
+        <v>292599.15926040319</v>
+      </c>
+      <c r="CE7" s="1">
+        <f t="shared" si="1"/>
+        <v>288610.22863666917</v>
+      </c>
+      <c r="CF7" s="1">
+        <f t="shared" si="1"/>
+        <v>291095.78643610247</v>
+      </c>
+      <c r="CG7" s="1">
+        <f t="shared" si="1"/>
+        <v>288995.87033644231</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>